--- a/DATA_goal/Junction_Flooding_79.xlsx
+++ b/DATA_goal/Junction_Flooding_79.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41511.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.95</v>
+        <v>2.09</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.25</v>
+        <v>1.43</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.12</v>
+        <v>4.41</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.21</v>
+        <v>3.62</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>53.51</v>
+        <v>5.35</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.36</v>
+        <v>2.54</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.97</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>242.15</v>
+        <v>24.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>45.61</v>
+        <v>4.56</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.1</v>
+        <v>3.01</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.81</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.35</v>
+        <v>4.73</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41511.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.6</v>
+        <v>3.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.13</v>
+        <v>2.51</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.74</v>
+        <v>4.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.78</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>163.22</v>
+        <v>16.32</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.4</v>
+        <v>3.14</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.31</v>
+        <v>2.13</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AH3" s="4" t="n">
         <v>1.29</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>40.65</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>12.93</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41511.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.02</v>
+        <v>2.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.93</v>
+        <v>5.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.78</v>
+        <v>4.28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.9</v>
+        <v>1.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>71.88</v>
+        <v>7.19</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.09</v>
+        <v>2.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.17</v>
+        <v>1.92</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.96</v>
+        <v>2.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.71</v>
+        <v>2.67</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.82</v>
+        <v>27.88</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.55</v>
+        <v>5.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.24</v>
+        <v>3.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.96</v>
+        <v>3.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.89</v>
+        <v>2.19</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>65.15000000000001</v>
+        <v>6.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.69</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41511.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.62</v>
+        <v>2.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.52</v>
+        <v>2.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.56</v>
+        <v>4.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.55</v>
+        <v>1.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>150.63</v>
+        <v>15.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.12</v>
+        <v>2.91</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.45</v>
+        <v>1.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.55</v>
+        <v>2.05</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.62</v>
+        <v>3.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41511.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>27.63</v>
+        <v>2.76</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>22.71</v>
+        <v>2.27</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>39.9</v>
+        <v>3.99</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>11.15</v>
+        <v>1.12</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>144.9</v>
+        <v>14.49</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>27.99</v>
+        <v>2.8</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>19.05</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>36.14</v>
+        <v>3.61</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41511.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>41.05</v>
+        <v>4.1</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>33.81</v>
+        <v>3.38</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>56.76</v>
+        <v>5.68</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.09</v>
+        <v>2.11</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>218.15</v>
+        <v>21.81</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>41.4</v>
+        <v>4.14</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>27.86</v>
+        <v>2.79</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>27.64</v>
+        <v>2.76</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>51.43</v>
+        <v>5.14</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41511.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23.64</v>
+        <v>2.36</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>51.31</v>
+        <v>5.13</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>42.31</v>
+        <v>4.23</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>71.81999999999999</v>
+        <v>7.18</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>28.62</v>
+        <v>2.86</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>19.01</v>
+        <v>1.9</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20.64</v>
+        <v>2.06</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>21.76</v>
+        <v>2.18</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>26.38</v>
+        <v>2.64</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>274.24</v>
+        <v>27.42</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>51.73</v>
+        <v>5.17</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>34.88</v>
+        <v>3.49</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>34.95</v>
+        <v>3.5</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>65.19</v>
+        <v>6.52</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>21.35</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41511.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>17.08</v>
+        <v>1.71</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>49.87</v>
+        <v>4.99</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>41.12</v>
+        <v>4.11</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>70.98</v>
+        <v>7.1</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>20.05</v>
+        <v>2.01</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>21.15</v>
+        <v>2.11</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>25.64</v>
+        <v>2.56</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>266.23</v>
+        <v>26.62</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>50.28</v>
+        <v>5.03</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>33.92</v>
+        <v>3.39</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>34.33</v>
+        <v>3.43</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>21.05</v>
+        <v>2.11</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>64.43000000000001</v>
+        <v>6.44</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41511.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>23.55</v>
+        <v>2.36</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>60.25</v>
+        <v>6.03</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.25</v>
+        <v>0.32</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.23</v>
       </c>
-      <c r="AF10" s="4" t="n">
-        <v>21.78</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>2.27</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_79.xlsx
+++ b/DATA_goal/Junction_Flooding_79.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41511.34027777778</v>
+        <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.09</v>
+        <v>1.48</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.98</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.41</v>
+        <v>3.22</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.62</v>
+        <v>2.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.35</v>
+        <v>3.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.54</v>
+        <v>1.8</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K2" s="4" t="n">
         <v>1.07</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>1.64</v>
-      </c>
       <c r="L2" s="4" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.22</v>
+        <v>17</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.56</v>
+        <v>3.23</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.51</v>
+        <v>1.08</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.01</v>
+        <v>2.08</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.07</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.28</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="AA2" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>1.34</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>1.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41511.34722222222</v>
+        <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.76</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.06</v>
+        <v>1.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.51</v>
+        <v>1.26</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.59</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.47</v>
+        <v>2.48</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.73</v>
+        <v>0.93</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.66</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.7</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.6</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.83</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>16.32</v>
+        <v>8.42</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.14</v>
+        <v>1.69</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.08</v>
+        <v>1.09</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.13</v>
+        <v>1.21</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.54</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.66</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.06</v>
+        <v>2.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41511.35416666666</v>
+        <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.19</v>
+        <v>4.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.28</v>
+        <v>3.37</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.19</v>
+        <v>5.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.91</v>
+        <v>2.33</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="V4" s="4" t="n">
+      <c r="AD4" s="4" t="n">
         <v>1.74</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>2.19</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.51</v>
+        <v>5.06</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.17</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41511.36111111111</v>
+        <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.33</v>
+        <v>0.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.04</v>
-      </c>
       <c r="H5" s="4" t="n">
-        <v>4.36</v>
+        <v>1.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.61</v>
+        <v>0.17</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.04</v>
+        <v>0.11</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.17</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.06</v>
+        <v>1</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.91</v>
+        <v>0.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.94</v>
+        <v>0.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.05</v>
+        <v>0.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.11</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.96</v>
+        <v>1.18</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41511.36805555555</v>
+        <v>44781.86804398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.28</v>
+        <v>1.88</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.93</v>
+        <v>1.22</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.76</v>
+        <v>4.29</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.27</v>
+        <v>2.95</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.99</v>
+        <v>7.68</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.55</v>
+        <v>2.33</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.17</v>
+        <v>1.81</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.42</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.85</v>
+        <v>1.48</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>14.49</v>
+        <v>15.54</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.8</v>
+        <v>4.24</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.92</v>
+        <v>1.39</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.99</v>
+        <v>1.35</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.91</v>
+        <v>3.36</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.82</v>
+        <v>1.23</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.73</v>
+        <v>1.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.85</v>
+        <v>1.4</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.61</v>
+        <v>7.13</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41511.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD7" s="4" t="n">
         <v>1.73</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41511.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>27.42</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41511.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41511.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41511.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>3.65</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_79.xlsx
+++ b/DATA_goal/Junction_Flooding_79.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.22</v>
+        <v>32.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.5</v>
+        <v>34.96</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17</v>
+        <v>170.03</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.23</v>
+        <v>32.3</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.14</v>
+        <v>31.42</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.89</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.48</v>
+        <v>24.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.42</v>
+        <v>84.25</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.94</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.05</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.55</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.31</v>
+        <v>23.08</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1.4</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>4.2</v>
+        <v>41.96</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.37</v>
+        <v>33.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.99</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.57</v>
+        <v>55.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.22</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.75</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.3</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.16</v>
+        <v>221.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.2</v>
+        <v>41.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.8</v>
+        <v>28.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.71</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.75</v>
+        <v>27.51</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.38</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.06</v>
+        <v>50.64</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_79.xlsx
+++ b/DATA_goal/Junction_Flooding_79.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.84</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.7</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.24</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.17</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.96</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.28</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.03</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.3</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.81</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.71</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.84</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.29</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.68</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.42</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
@@ -759,19 +759,19 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.633</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.13</v>
+        <v>5.133</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.483</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.89</v>
+        <v>16.889</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.59</v>
+        <v>12.592</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>5.89</v>
@@ -780,82 +780,82 @@
         <v>24.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.85</v>
+        <v>3.846</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.44</v>
+        <v>5.443</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.6</v>
+        <v>6.602</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.02</v>
+        <v>7.021</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.94</v>
+        <v>1.935</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.34</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.47</v>
+        <v>5.472</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.39</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.765</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>84.25</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.94</v>
+        <v>16.945</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.63</v>
+        <v>5.628</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.41</v>
+        <v>1.414</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.05</v>
+        <v>12.052</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.55</v>
+        <v>4.546</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.37</v>
+        <v>5.372</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.65</v>
+        <v>6.649</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.08</v>
+        <v>23.079</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.9</v>
+        <v>2.897</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.17</v>
+        <v>19.168</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.03</v>
+        <v>14.031</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.402</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.96</v>
+        <v>41.956</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.74</v>
+        <v>33.736</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.99</v>
+        <v>14.994</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>55.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.22</v>
+        <v>10.222</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.04</v>
+        <v>15.044</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.73</v>
+        <v>16.732</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.75</v>
+        <v>17.753</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.3</v>
+        <v>21.299</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>12.82</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.028</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.57</v>
+        <v>221.573</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.98</v>
+        <v>41.984</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.04</v>
+        <v>28.042</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.71</v>
+        <v>14.711</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.39</v>
+        <v>2.391</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.51</v>
+        <v>27.508</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.94</v>
+        <v>10.935</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.87</v>
+        <v>12.872</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.38</v>
+        <v>17.385</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>50.64</v>
+        <v>50.635</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.73</v>
+        <v>7.725</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_79.xlsx
+++ b/DATA_goal/Junction_Flooding_79.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.4</v>
+        <v>1.395</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.597</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.26</v>
+        <v>3.263</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.97</v>
+        <v>1.965</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.032</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>12.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.75</v>
+        <v>1.745</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.787</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.236</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.36</v>
+        <v>1.362</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.128</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.69</v>
+        <v>1.689</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.222</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.658</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10</v>
+        <v>10.001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.74</v>
+        <v>3.737</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.041</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.44</v>
+        <v>2.442</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.11</v>
+        <v>1.111</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.32</v>
+        <v>5.316</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.963</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.11</v>
+        <v>1.111</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.139</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.77</v>
+        <v>11.773</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.445</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_79.xlsx
+++ b/DATA_goal/Junction_Flooding_79.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.395</v>
+        <v>1.4</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.597</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.263</v>
+        <v>3.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.965</v>
+        <v>1.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.032</v>
+        <v>1.03</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>12.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.745</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.236</v>
+        <v>1.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.362</v>
+        <v>1.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.128</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.689</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.222</v>
+        <v>1.22</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.658</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.273</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.001</v>
+        <v>10</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.737</v>
+        <v>3.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.041</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.442</v>
+        <v>2.44</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.111</v>
+        <v>1.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.316</v>
+        <v>5.32</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.963</v>
+        <v>0.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.111</v>
+        <v>1.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.139</v>
+        <v>1.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.773</v>
+        <v>11.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.445</v>
+        <v>0.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.315</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
